--- a/result.xlsx
+++ b/result.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1935" yWindow="-105" windowWidth="22140" windowHeight="13170"/>
+    <workbookView xWindow="2865" yWindow="-105" windowWidth="22140" windowHeight="13170" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -407,8 +407,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="W3" sqref="W3:W19"/>
+    <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -458,34 +458,34 @@
         <v>1</v>
       </c>
       <c r="B4">
-        <v>97976</v>
+        <v>97937</v>
       </c>
       <c r="C4">
-        <v>95907</v>
+        <v>95962</v>
       </c>
       <c r="D4">
-        <v>93957</v>
+        <v>93918</v>
       </c>
       <c r="E4">
-        <v>91920</v>
+        <v>91873</v>
       </c>
       <c r="F4">
-        <v>90036</v>
+        <v>89847</v>
       </c>
       <c r="G4">
-        <v>88084</v>
+        <v>87785</v>
       </c>
       <c r="H4">
-        <v>86189</v>
+        <v>85860</v>
       </c>
       <c r="I4">
-        <v>84163</v>
+        <v>83873</v>
       </c>
       <c r="J4">
-        <v>82131</v>
+        <v>81844</v>
       </c>
       <c r="K4">
-        <v>80209</v>
+        <v>79937</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -493,34 +493,34 @@
         <v>2</v>
       </c>
       <c r="B5">
-        <v>84199</v>
+        <v>83991</v>
       </c>
       <c r="C5">
-        <v>76101</v>
+        <v>75870</v>
       </c>
       <c r="D5">
-        <v>70134</v>
+        <v>69948</v>
       </c>
       <c r="E5">
-        <v>65266</v>
+        <v>65092</v>
       </c>
       <c r="F5">
-        <v>61101</v>
+        <v>60983</v>
       </c>
       <c r="G5">
-        <v>57419</v>
+        <v>57290</v>
       </c>
       <c r="H5">
-        <v>54092</v>
+        <v>53985</v>
       </c>
       <c r="I5">
-        <v>51067</v>
+        <v>50990</v>
       </c>
       <c r="J5">
-        <v>48254</v>
+        <v>48235</v>
       </c>
       <c r="K5">
-        <v>45653</v>
+        <v>45707</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -531,31 +531,31 @@
         <v>98005</v>
       </c>
       <c r="C6">
-        <v>95947</v>
+        <v>96000</v>
       </c>
       <c r="D6">
-        <v>93945</v>
+        <v>94049</v>
       </c>
       <c r="E6">
-        <v>92032</v>
+        <v>92161</v>
       </c>
       <c r="F6">
-        <v>90007</v>
+        <v>90124</v>
       </c>
       <c r="G6">
-        <v>87927</v>
+        <v>88042</v>
       </c>
       <c r="H6">
-        <v>86036</v>
+        <v>86033</v>
       </c>
       <c r="I6">
-        <v>84065</v>
+        <v>84077</v>
       </c>
       <c r="J6">
-        <v>81890</v>
+        <v>82166</v>
       </c>
       <c r="K6">
-        <v>79914</v>
+        <v>80090</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -563,34 +563,34 @@
         <v>4</v>
       </c>
       <c r="B7">
-        <v>98053</v>
+        <v>97944</v>
       </c>
       <c r="C7">
-        <v>96137</v>
+        <v>95851</v>
       </c>
       <c r="D7">
         <v>94165</v>
       </c>
       <c r="E7">
-        <v>92166</v>
+        <v>91884</v>
       </c>
       <c r="F7">
-        <v>90189</v>
+        <v>89884</v>
       </c>
       <c r="G7">
-        <v>88141</v>
+        <v>87967</v>
       </c>
       <c r="H7">
-        <v>86141</v>
+        <v>85956</v>
       </c>
       <c r="I7">
-        <v>84095</v>
+        <v>84003</v>
       </c>
       <c r="J7">
-        <v>82148</v>
+        <v>81937</v>
       </c>
       <c r="K7">
-        <v>80215</v>
+        <v>79873</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -636,31 +636,31 @@
         <v>100000</v>
       </c>
       <c r="C10">
-        <v>99832</v>
+        <v>100000</v>
       </c>
       <c r="D10">
-        <v>99472</v>
+        <v>98144</v>
       </c>
       <c r="E10">
-        <v>96954</v>
+        <v>94618</v>
       </c>
       <c r="F10">
-        <v>91363</v>
+        <v>92189</v>
       </c>
       <c r="G10">
-        <v>90589</v>
+        <v>91765</v>
       </c>
       <c r="H10">
-        <v>90176</v>
+        <v>89570</v>
       </c>
       <c r="I10">
-        <v>87431</v>
+        <v>86858</v>
       </c>
       <c r="J10">
-        <v>84871</v>
+        <v>84669</v>
       </c>
       <c r="K10">
-        <v>82525</v>
+        <v>82950</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -668,34 +668,34 @@
         <v>2</v>
       </c>
       <c r="B11">
-        <v>94068</v>
+        <v>93921</v>
       </c>
       <c r="C11">
-        <v>87947</v>
+        <v>87491</v>
       </c>
       <c r="D11">
-        <v>81887</v>
+        <v>81208</v>
       </c>
       <c r="E11">
-        <v>76437</v>
+        <v>75954</v>
       </c>
       <c r="F11">
-        <v>71974</v>
+        <v>71669</v>
       </c>
       <c r="G11">
-        <v>68292</v>
+        <v>67810</v>
       </c>
       <c r="H11">
-        <v>64709</v>
+        <v>64105</v>
       </c>
       <c r="I11">
-        <v>61261</v>
+        <v>60720</v>
       </c>
       <c r="J11">
-        <v>58105</v>
+        <v>57649</v>
       </c>
       <c r="K11">
-        <v>55283</v>
+        <v>54747</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -703,34 +703,34 @@
         <v>3</v>
       </c>
       <c r="B12">
-        <v>98437</v>
+        <v>98546</v>
       </c>
       <c r="C12">
-        <v>96398</v>
+        <v>96414</v>
       </c>
       <c r="D12">
-        <v>94415</v>
+        <v>94204</v>
       </c>
       <c r="E12">
-        <v>92322</v>
+        <v>92120</v>
       </c>
       <c r="F12">
-        <v>90122</v>
+        <v>90110</v>
       </c>
       <c r="G12">
-        <v>88027</v>
+        <v>87455</v>
       </c>
       <c r="H12">
-        <v>86072</v>
+        <v>85200</v>
       </c>
       <c r="I12">
-        <v>84300</v>
+        <v>82811</v>
       </c>
       <c r="J12">
-        <v>82177</v>
+        <v>81404</v>
       </c>
       <c r="K12">
-        <v>80180</v>
+        <v>79136</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -738,34 +738,34 @@
         <v>4</v>
       </c>
       <c r="B13">
-        <v>99141</v>
+        <v>98998</v>
       </c>
       <c r="C13">
-        <v>96853</v>
+        <v>96749</v>
       </c>
       <c r="D13">
-        <v>94787</v>
+        <v>94706</v>
       </c>
       <c r="E13">
-        <v>92822</v>
+        <v>92580</v>
       </c>
       <c r="F13">
-        <v>90934</v>
+        <v>90552</v>
       </c>
       <c r="G13">
-        <v>88948</v>
+        <v>88693</v>
       </c>
       <c r="H13">
-        <v>86867</v>
+        <v>86470</v>
       </c>
       <c r="I13">
-        <v>84964</v>
+        <v>84377</v>
       </c>
       <c r="J13">
-        <v>82648</v>
+        <v>82435</v>
       </c>
       <c r="K13">
-        <v>80729</v>
+        <v>80588</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -808,34 +808,34 @@
         <v>1</v>
       </c>
       <c r="B16">
-        <v>42849</v>
+        <v>42865</v>
       </c>
       <c r="C16">
-        <v>23445</v>
+        <v>23406</v>
       </c>
       <c r="D16">
-        <v>19617</v>
+        <v>19603</v>
       </c>
       <c r="E16">
-        <v>17816</v>
+        <v>17823</v>
       </c>
       <c r="F16">
-        <v>16664</v>
+        <v>16663</v>
       </c>
       <c r="G16">
-        <v>15851</v>
+        <v>15801</v>
       </c>
       <c r="H16">
-        <v>15194</v>
+        <v>15152</v>
       </c>
       <c r="I16">
-        <v>14615</v>
+        <v>14587</v>
       </c>
       <c r="J16">
-        <v>14129</v>
+        <v>14050</v>
       </c>
       <c r="K16">
-        <v>13655</v>
+        <v>13579</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -843,34 +843,34 @@
         <v>2</v>
       </c>
       <c r="B17">
-        <v>14874</v>
+        <v>14877</v>
       </c>
       <c r="C17">
-        <v>12709</v>
+        <v>12669</v>
       </c>
       <c r="D17">
-        <v>11549</v>
+        <v>11493</v>
       </c>
       <c r="E17">
-        <v>10676</v>
+        <v>10624</v>
       </c>
       <c r="F17">
-        <v>9960</v>
+        <v>9898</v>
       </c>
       <c r="G17">
-        <v>9321</v>
+        <v>9274</v>
       </c>
       <c r="H17">
-        <v>8775</v>
+        <v>8734</v>
       </c>
       <c r="I17">
-        <v>8282</v>
+        <v>8228</v>
       </c>
       <c r="J17">
-        <v>7837</v>
+        <v>7764</v>
       </c>
       <c r="K17">
-        <v>7421</v>
+        <v>7354</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -878,34 +878,34 @@
         <v>3</v>
       </c>
       <c r="B18">
-        <v>15434</v>
+        <v>15477</v>
       </c>
       <c r="C18">
-        <v>15102</v>
+        <v>15156</v>
       </c>
       <c r="D18">
-        <v>14817</v>
+        <v>14859</v>
       </c>
       <c r="E18">
-        <v>14479</v>
+        <v>14539</v>
       </c>
       <c r="F18">
-        <v>14192</v>
+        <v>14244</v>
       </c>
       <c r="G18">
-        <v>13879</v>
+        <v>13920</v>
       </c>
       <c r="H18">
-        <v>13573</v>
+        <v>13646</v>
       </c>
       <c r="I18">
-        <v>13269</v>
+        <v>13298</v>
       </c>
       <c r="J18">
-        <v>12940</v>
+        <v>12930</v>
       </c>
       <c r="K18">
-        <v>12638</v>
+        <v>12614</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -913,34 +913,34 @@
         <v>4</v>
       </c>
       <c r="B19">
-        <v>37940</v>
+        <v>38138</v>
       </c>
       <c r="C19">
-        <v>22355</v>
+        <v>22450</v>
       </c>
       <c r="D19">
-        <v>18779</v>
+        <v>18794</v>
       </c>
       <c r="E19">
-        <v>17075</v>
+        <v>17328</v>
       </c>
       <c r="F19">
-        <v>15952</v>
+        <v>16249</v>
       </c>
       <c r="G19">
-        <v>15450</v>
+        <v>15424</v>
       </c>
       <c r="H19">
-        <v>14779</v>
+        <v>14798</v>
       </c>
       <c r="I19">
-        <v>14226</v>
+        <v>14274</v>
       </c>
       <c r="J19">
-        <v>13886</v>
+        <v>13925</v>
       </c>
       <c r="K19">
-        <v>13312</v>
+        <v>13528</v>
       </c>
     </row>
   </sheetData>
@@ -955,7 +955,7 @@
   <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1008,34 +1008,34 @@
         <v>1</v>
       </c>
       <c r="B4">
-        <v>122865</v>
+        <v>122598</v>
       </c>
       <c r="C4">
-        <v>120666</v>
+        <v>120481</v>
       </c>
       <c r="D4">
-        <v>118588</v>
+        <v>118302</v>
       </c>
       <c r="E4">
-        <v>116424</v>
+        <v>116127</v>
       </c>
       <c r="F4">
-        <v>114424</v>
+        <v>113970</v>
       </c>
       <c r="G4">
-        <v>112322</v>
+        <v>111744</v>
       </c>
       <c r="H4">
-        <v>110285</v>
+        <v>109684</v>
       </c>
       <c r="I4">
-        <v>108143</v>
+        <v>107576</v>
       </c>
       <c r="J4">
-        <v>105948</v>
+        <v>105394</v>
       </c>
       <c r="K4">
-        <v>103898</v>
+        <v>103307</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -1043,34 +1043,34 @@
         <v>2</v>
       </c>
       <c r="B5">
-        <v>108101</v>
+        <v>107609</v>
       </c>
       <c r="C5">
-        <v>99305</v>
+        <v>98795</v>
       </c>
       <c r="D5">
-        <v>92729</v>
+        <v>92277</v>
       </c>
       <c r="E5">
-        <v>87341</v>
+        <v>86855</v>
       </c>
       <c r="F5">
-        <v>82682</v>
+        <v>82274</v>
       </c>
       <c r="G5">
-        <v>78497</v>
+        <v>78108</v>
       </c>
       <c r="H5">
-        <v>74726</v>
+        <v>74335</v>
       </c>
       <c r="I5">
-        <v>71235</v>
+        <v>70890</v>
       </c>
       <c r="J5">
-        <v>67935</v>
+        <v>67709</v>
       </c>
       <c r="K5">
-        <v>64908</v>
+        <v>64730</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -1078,34 +1078,34 @@
         <v>3</v>
       </c>
       <c r="B6">
-        <v>122528</v>
+        <v>122338</v>
       </c>
       <c r="C6">
-        <v>119954</v>
+        <v>119821</v>
       </c>
       <c r="D6">
-        <v>117451</v>
+        <v>117406</v>
       </c>
       <c r="E6">
-        <v>115034</v>
+        <v>115032</v>
       </c>
       <c r="F6">
-        <v>112507</v>
+        <v>112499</v>
       </c>
       <c r="G6">
-        <v>109838</v>
+        <v>109820</v>
       </c>
       <c r="H6">
-        <v>107531</v>
+        <v>107364</v>
       </c>
       <c r="I6">
-        <v>105055</v>
+        <v>104942</v>
       </c>
       <c r="J6">
-        <v>102363</v>
+        <v>102485</v>
       </c>
       <c r="K6">
-        <v>99838</v>
+        <v>99863</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -1113,34 +1113,34 @@
         <v>4</v>
       </c>
       <c r="B7">
-        <v>122607</v>
+        <v>122253</v>
       </c>
       <c r="C7">
-        <v>120211</v>
+        <v>119643</v>
       </c>
       <c r="D7">
-        <v>117737</v>
+        <v>117172</v>
       </c>
       <c r="E7">
-        <v>115238</v>
+        <v>114662</v>
       </c>
       <c r="F7">
-        <v>112803</v>
+        <v>112146</v>
       </c>
       <c r="G7">
-        <v>110190</v>
+        <v>109768</v>
       </c>
       <c r="H7">
-        <v>107708</v>
+        <v>107191</v>
       </c>
       <c r="I7">
-        <v>105138</v>
+        <v>104770</v>
       </c>
       <c r="J7">
-        <v>102716</v>
+        <v>102181</v>
       </c>
       <c r="K7">
-        <v>100286</v>
+        <v>99645</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -1183,34 +1183,34 @@
         <v>1</v>
       </c>
       <c r="B10">
-        <v>125018</v>
+        <v>124801</v>
       </c>
       <c r="C10">
-        <v>124836</v>
+        <v>124798</v>
       </c>
       <c r="D10">
-        <v>124454</v>
+        <v>122812</v>
       </c>
       <c r="E10">
-        <v>121755</v>
+        <v>119057</v>
       </c>
       <c r="F10">
-        <v>115794</v>
+        <v>116472</v>
       </c>
       <c r="G10">
-        <v>114960</v>
+        <v>116013</v>
       </c>
       <c r="H10">
-        <v>114507</v>
+        <v>113665</v>
       </c>
       <c r="I10">
-        <v>111559</v>
+        <v>110746</v>
       </c>
       <c r="J10">
-        <v>108821</v>
+        <v>108430</v>
       </c>
       <c r="K10">
-        <v>106321</v>
+        <v>106578</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -1218,34 +1218,34 @@
         <v>2</v>
       </c>
       <c r="B11">
-        <v>118598</v>
+        <v>118257</v>
       </c>
       <c r="C11">
-        <v>111977</v>
+        <v>111297</v>
       </c>
       <c r="D11">
-        <v>105412</v>
+        <v>104501</v>
       </c>
       <c r="E11">
-        <v>99445</v>
+        <v>98729</v>
       </c>
       <c r="F11">
-        <v>94530</v>
+        <v>93994</v>
       </c>
       <c r="G11">
-        <v>90363</v>
+        <v>89710</v>
       </c>
       <c r="H11">
-        <v>86332</v>
+        <v>85577</v>
       </c>
       <c r="I11">
-        <v>82433</v>
+        <v>81745</v>
       </c>
       <c r="J11">
-        <v>78864</v>
+        <v>78298</v>
       </c>
       <c r="K11">
-        <v>75650</v>
+        <v>75007</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -1253,34 +1253,34 @@
         <v>3</v>
       </c>
       <c r="B12">
-        <v>123070</v>
+        <v>123017</v>
       </c>
       <c r="C12">
-        <v>120496</v>
+        <v>120358</v>
       </c>
       <c r="D12">
-        <v>118000</v>
+        <v>117588</v>
       </c>
       <c r="E12">
-        <v>115361</v>
+        <v>114972</v>
       </c>
       <c r="F12">
-        <v>112603</v>
+        <v>112442</v>
       </c>
       <c r="G12">
-        <v>109975</v>
+        <v>109126</v>
       </c>
       <c r="H12">
-        <v>107505</v>
+        <v>106309</v>
       </c>
       <c r="I12">
-        <v>105272</v>
+        <v>103274</v>
       </c>
       <c r="J12">
-        <v>102626</v>
+        <v>101573</v>
       </c>
       <c r="K12">
-        <v>100113</v>
+        <v>98727</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -1288,34 +1288,34 @@
         <v>4</v>
       </c>
       <c r="B13">
-        <v>123954</v>
+        <v>123558</v>
       </c>
       <c r="C13">
-        <v>121078</v>
+        <v>120733</v>
       </c>
       <c r="D13">
-        <v>118485</v>
+        <v>118152</v>
       </c>
       <c r="E13">
-        <v>116006</v>
+        <v>115515</v>
       </c>
       <c r="F13">
-        <v>113639</v>
+        <v>113003</v>
       </c>
       <c r="G13">
-        <v>111172</v>
+        <v>110651</v>
       </c>
       <c r="H13">
-        <v>108552</v>
+        <v>107860</v>
       </c>
       <c r="I13">
-        <v>106177</v>
+        <v>105214</v>
       </c>
       <c r="J13">
-        <v>103262</v>
+        <v>102812</v>
       </c>
       <c r="K13">
-        <v>100818</v>
+        <v>100511</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -1358,34 +1358,34 @@
         <v>1</v>
       </c>
       <c r="B16">
-        <v>61421</v>
+        <v>61355</v>
       </c>
       <c r="C16">
-        <v>34812</v>
+        <v>34763</v>
       </c>
       <c r="D16">
-        <v>28163</v>
+        <v>28157</v>
       </c>
       <c r="E16">
-        <v>24920</v>
+        <v>24955</v>
       </c>
       <c r="F16">
-        <v>22926</v>
+        <v>22964</v>
       </c>
       <c r="G16">
-        <v>21581</v>
+        <v>21562</v>
       </c>
       <c r="H16">
-        <v>20556</v>
+        <v>20541</v>
       </c>
       <c r="I16">
-        <v>19690</v>
+        <v>19699</v>
       </c>
       <c r="J16">
-        <v>18971</v>
+        <v>18936</v>
       </c>
       <c r="K16">
-        <v>18322</v>
+        <v>18277</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -1393,34 +1393,34 @@
         <v>2</v>
       </c>
       <c r="B17">
-        <v>18649</v>
+        <v>18696</v>
       </c>
       <c r="C17">
-        <v>16334</v>
+        <v>16340</v>
       </c>
       <c r="D17">
-        <v>15075</v>
+        <v>15063</v>
       </c>
       <c r="E17">
-        <v>14100</v>
+        <v>14091</v>
       </c>
       <c r="F17">
-        <v>13297</v>
+        <v>13270</v>
       </c>
       <c r="G17">
-        <v>12570</v>
+        <v>12582</v>
       </c>
       <c r="H17">
-        <v>11947</v>
+        <v>11953</v>
       </c>
       <c r="I17">
-        <v>11375</v>
+        <v>11371</v>
       </c>
       <c r="J17">
-        <v>10851</v>
+        <v>10830</v>
       </c>
       <c r="K17">
-        <v>10371</v>
+        <v>10350</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -1428,34 +1428,34 @@
         <v>3</v>
       </c>
       <c r="B18">
-        <v>19247</v>
+        <v>19338</v>
       </c>
       <c r="C18">
-        <v>18819</v>
+        <v>18934</v>
       </c>
       <c r="D18">
-        <v>18451</v>
+        <v>18536</v>
       </c>
       <c r="E18">
-        <v>18030</v>
+        <v>18132</v>
       </c>
       <c r="F18">
-        <v>17673</v>
+        <v>17752</v>
       </c>
       <c r="G18">
-        <v>17264</v>
+        <v>17347</v>
       </c>
       <c r="H18">
-        <v>16882</v>
+        <v>17004</v>
       </c>
       <c r="I18">
-        <v>16479</v>
+        <v>16554</v>
       </c>
       <c r="J18">
-        <v>16057</v>
+        <v>16094</v>
       </c>
       <c r="K18">
-        <v>15667</v>
+        <v>15696</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -1463,34 +1463,34 @@
         <v>4</v>
       </c>
       <c r="B19">
-        <v>47556</v>
+        <v>47745</v>
       </c>
       <c r="C19">
-        <v>28148</v>
+        <v>28285</v>
       </c>
       <c r="D19">
-        <v>23628</v>
+        <v>23696</v>
       </c>
       <c r="E19">
-        <v>21471</v>
+        <v>21776</v>
       </c>
       <c r="F19">
-        <v>20051</v>
+        <v>20388</v>
       </c>
       <c r="G19">
-        <v>19340</v>
+        <v>19365</v>
       </c>
       <c r="H19">
-        <v>18481</v>
+        <v>18568</v>
       </c>
       <c r="I19">
-        <v>17787</v>
+        <v>17885</v>
       </c>
       <c r="J19">
-        <v>17287</v>
+        <v>17385</v>
       </c>
       <c r="K19">
-        <v>16595</v>
+        <v>16864</v>
       </c>
     </row>
   </sheetData>
@@ -1504,7 +1504,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K19"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -1553,34 +1555,34 @@
         <v>1</v>
       </c>
       <c r="B4">
-        <v>24889</v>
+        <v>24661</v>
       </c>
       <c r="C4">
-        <v>24759</v>
+        <v>24519</v>
       </c>
       <c r="D4">
-        <v>24631</v>
+        <v>24384</v>
       </c>
       <c r="E4">
-        <v>24504</v>
+        <v>24254</v>
       </c>
       <c r="F4">
-        <v>24388</v>
+        <v>24123</v>
       </c>
       <c r="G4">
-        <v>24238</v>
+        <v>23959</v>
       </c>
       <c r="H4">
-        <v>24096</v>
+        <v>23824</v>
       </c>
       <c r="I4">
-        <v>23980</v>
+        <v>23703</v>
       </c>
       <c r="J4">
-        <v>23817</v>
+        <v>23550</v>
       </c>
       <c r="K4">
-        <v>23689</v>
+        <v>23370</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -1588,34 +1590,34 @@
         <v>2</v>
       </c>
       <c r="B5">
-        <v>23902</v>
+        <v>23618</v>
       </c>
       <c r="C5">
-        <v>23204</v>
+        <v>22925</v>
       </c>
       <c r="D5">
-        <v>22595</v>
+        <v>22329</v>
       </c>
       <c r="E5">
-        <v>22075</v>
+        <v>21763</v>
       </c>
       <c r="F5">
-        <v>21581</v>
+        <v>21291</v>
       </c>
       <c r="G5">
-        <v>21078</v>
+        <v>20818</v>
       </c>
       <c r="H5">
-        <v>20634</v>
+        <v>20350</v>
       </c>
       <c r="I5">
-        <v>20168</v>
+        <v>19900</v>
       </c>
       <c r="J5">
-        <v>19681</v>
+        <v>19474</v>
       </c>
       <c r="K5">
-        <v>19255</v>
+        <v>19023</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -1623,34 +1625,34 @@
         <v>3</v>
       </c>
       <c r="B6">
-        <v>24523</v>
+        <v>24333</v>
       </c>
       <c r="C6">
-        <v>24007</v>
+        <v>23821</v>
       </c>
       <c r="D6">
-        <v>23506</v>
+        <v>23357</v>
       </c>
       <c r="E6">
-        <v>23002</v>
+        <v>22871</v>
       </c>
       <c r="F6">
-        <v>22500</v>
+        <v>22375</v>
       </c>
       <c r="G6">
-        <v>21911</v>
+        <v>21778</v>
       </c>
       <c r="H6">
-        <v>21495</v>
+        <v>21331</v>
       </c>
       <c r="I6">
-        <v>20990</v>
+        <v>20865</v>
       </c>
       <c r="J6">
-        <v>20473</v>
+        <v>20319</v>
       </c>
       <c r="K6">
-        <v>19924</v>
+        <v>19773</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -1658,34 +1660,34 @@
         <v>4</v>
       </c>
       <c r="B7">
-        <v>24554</v>
+        <v>24309</v>
       </c>
       <c r="C7">
-        <v>24074</v>
+        <v>23792</v>
       </c>
       <c r="D7">
-        <v>23572</v>
+        <v>23283</v>
       </c>
       <c r="E7">
-        <v>23072</v>
+        <v>22778</v>
       </c>
       <c r="F7">
-        <v>22614</v>
+        <v>22262</v>
       </c>
       <c r="G7">
-        <v>22049</v>
+        <v>21801</v>
       </c>
       <c r="H7">
-        <v>21567</v>
+        <v>21235</v>
       </c>
       <c r="I7">
-        <v>21043</v>
+        <v>20767</v>
       </c>
       <c r="J7">
-        <v>20568</v>
+        <v>20244</v>
       </c>
       <c r="K7">
-        <v>20071</v>
+        <v>19772</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -1728,34 +1730,34 @@
         <v>1</v>
       </c>
       <c r="B10">
-        <v>25018</v>
+        <v>24801</v>
       </c>
       <c r="C10">
-        <v>25004</v>
+        <v>24798</v>
       </c>
       <c r="D10">
-        <v>24982</v>
+        <v>24668</v>
       </c>
       <c r="E10">
-        <v>24801</v>
+        <v>24439</v>
       </c>
       <c r="F10">
-        <v>24431</v>
+        <v>24283</v>
       </c>
       <c r="G10">
-        <v>24371</v>
+        <v>24248</v>
       </c>
       <c r="H10">
-        <v>24331</v>
+        <v>24095</v>
       </c>
       <c r="I10">
-        <v>24128</v>
+        <v>23888</v>
       </c>
       <c r="J10">
-        <v>23950</v>
+        <v>23761</v>
       </c>
       <c r="K10">
-        <v>23796</v>
+        <v>23628</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -1763,34 +1765,34 @@
         <v>2</v>
       </c>
       <c r="B11">
-        <v>24530</v>
+        <v>24336</v>
       </c>
       <c r="C11">
-        <v>24030</v>
+        <v>23806</v>
       </c>
       <c r="D11">
-        <v>23525</v>
+        <v>23293</v>
       </c>
       <c r="E11">
-        <v>23008</v>
+        <v>22775</v>
       </c>
       <c r="F11">
-        <v>22556</v>
+        <v>22325</v>
       </c>
       <c r="G11">
-        <v>22071</v>
+        <v>21900</v>
       </c>
       <c r="H11">
-        <v>21623</v>
+        <v>21472</v>
       </c>
       <c r="I11">
-        <v>21172</v>
+        <v>21025</v>
       </c>
       <c r="J11">
-        <v>20759</v>
+        <v>20649</v>
       </c>
       <c r="K11">
-        <v>20367</v>
+        <v>20260</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -1798,34 +1800,34 @@
         <v>3</v>
       </c>
       <c r="B12">
-        <v>24633</v>
+        <v>24471</v>
       </c>
       <c r="C12">
-        <v>24098</v>
+        <v>23944</v>
       </c>
       <c r="D12">
-        <v>23585</v>
+        <v>23384</v>
       </c>
       <c r="E12">
-        <v>23039</v>
+        <v>22852</v>
       </c>
       <c r="F12">
-        <v>22481</v>
+        <v>22332</v>
       </c>
       <c r="G12">
-        <v>21948</v>
+        <v>21671</v>
       </c>
       <c r="H12">
-        <v>21433</v>
+        <v>21109</v>
       </c>
       <c r="I12">
-        <v>20972</v>
+        <v>20463</v>
       </c>
       <c r="J12">
-        <v>20449</v>
+        <v>20169</v>
       </c>
       <c r="K12">
-        <v>19933</v>
+        <v>19591</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -1833,34 +1835,34 @@
         <v>4</v>
       </c>
       <c r="B13">
-        <v>24813</v>
+        <v>24560</v>
       </c>
       <c r="C13">
-        <v>24225</v>
+        <v>23984</v>
       </c>
       <c r="D13">
-        <v>23698</v>
+        <v>23446</v>
       </c>
       <c r="E13">
-        <v>23184</v>
+        <v>22935</v>
       </c>
       <c r="F13">
-        <v>22705</v>
+        <v>22451</v>
       </c>
       <c r="G13">
-        <v>22224</v>
+        <v>21958</v>
       </c>
       <c r="H13">
-        <v>21685</v>
+        <v>21390</v>
       </c>
       <c r="I13">
-        <v>21213</v>
+        <v>20837</v>
       </c>
       <c r="J13">
-        <v>20614</v>
+        <v>20377</v>
       </c>
       <c r="K13">
-        <v>20089</v>
+        <v>19923</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -1903,34 +1905,34 @@
         <v>1</v>
       </c>
       <c r="B16">
-        <v>18572</v>
+        <v>18490</v>
       </c>
       <c r="C16">
-        <v>11367</v>
+        <v>11357</v>
       </c>
       <c r="D16">
-        <v>8546</v>
+        <v>8554</v>
       </c>
       <c r="E16">
-        <v>7104</v>
+        <v>7132</v>
       </c>
       <c r="F16">
-        <v>6262</v>
+        <v>6301</v>
       </c>
       <c r="G16">
-        <v>5730</v>
+        <v>5761</v>
       </c>
       <c r="H16">
-        <v>5362</v>
+        <v>5389</v>
       </c>
       <c r="I16">
-        <v>5075</v>
+        <v>5112</v>
       </c>
       <c r="J16">
-        <v>4842</v>
+        <v>4886</v>
       </c>
       <c r="K16">
-        <v>4667</v>
+        <v>4698</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -1938,34 +1940,34 @@
         <v>2</v>
       </c>
       <c r="B17">
-        <v>3775</v>
+        <v>3819</v>
       </c>
       <c r="C17">
-        <v>3625</v>
+        <v>3671</v>
       </c>
       <c r="D17">
-        <v>3526</v>
+        <v>3570</v>
       </c>
       <c r="E17">
-        <v>3424</v>
+        <v>3467</v>
       </c>
       <c r="F17">
-        <v>3337</v>
+        <v>3372</v>
       </c>
       <c r="G17">
-        <v>3249</v>
+        <v>3308</v>
       </c>
       <c r="H17">
-        <v>3172</v>
+        <v>3219</v>
       </c>
       <c r="I17">
-        <v>3093</v>
+        <v>3143</v>
       </c>
       <c r="J17">
-        <v>3014</v>
+        <v>3066</v>
       </c>
       <c r="K17">
-        <v>2950</v>
+        <v>2996</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -1973,34 +1975,34 @@
         <v>3</v>
       </c>
       <c r="B18">
-        <v>3813</v>
+        <v>3861</v>
       </c>
       <c r="C18">
-        <v>3717</v>
+        <v>3778</v>
       </c>
       <c r="D18">
-        <v>3634</v>
+        <v>3677</v>
       </c>
       <c r="E18">
-        <v>3551</v>
+        <v>3593</v>
       </c>
       <c r="F18">
-        <v>3481</v>
+        <v>3508</v>
       </c>
       <c r="G18">
-        <v>3385</v>
+        <v>3427</v>
       </c>
       <c r="H18">
-        <v>3309</v>
+        <v>3358</v>
       </c>
       <c r="I18">
-        <v>3210</v>
+        <v>3256</v>
       </c>
       <c r="J18">
-        <v>3117</v>
+        <v>3164</v>
       </c>
       <c r="K18">
-        <v>3029</v>
+        <v>3082</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -2008,34 +2010,34 @@
         <v>4</v>
       </c>
       <c r="B19">
-        <v>9616</v>
+        <v>9607</v>
       </c>
       <c r="C19">
-        <v>5793</v>
+        <v>5835</v>
       </c>
       <c r="D19">
-        <v>4849</v>
+        <v>4902</v>
       </c>
       <c r="E19">
-        <v>4396</v>
+        <v>4448</v>
       </c>
       <c r="F19">
-        <v>4099</v>
+        <v>4139</v>
       </c>
       <c r="G19">
-        <v>3890</v>
+        <v>3941</v>
       </c>
       <c r="H19">
-        <v>3702</v>
+        <v>3770</v>
       </c>
       <c r="I19">
-        <v>3561</v>
+        <v>3611</v>
       </c>
       <c r="J19">
-        <v>3401</v>
+        <v>3460</v>
       </c>
       <c r="K19">
-        <v>3283</v>
+        <v>3336</v>
       </c>
     </row>
   </sheetData>

--- a/result.xlsx
+++ b/result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NSYSU\課程\Advanced Operation System\HW1\PageReplacementAlgo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{203FDF50-0A17-46EA-A501-F049EC8049E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95B7EB9D-ABF6-4921-9F19-89048A7C7E87}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1008" yWindow="-108" windowWidth="22140" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9240" yWindow="1404" windowWidth="16440" windowHeight="9420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -408,8 +408,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+    <sheetView topLeftCell="A16" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -447,19 +447,19 @@
         <v>1</v>
       </c>
       <c r="B5">
-        <v>196662</v>
+        <v>197148</v>
       </c>
       <c r="C5">
-        <v>191466</v>
+        <v>192071</v>
       </c>
       <c r="D5">
-        <v>186040</v>
+        <v>186734</v>
       </c>
       <c r="E5">
-        <v>180810</v>
+        <v>181289</v>
       </c>
       <c r="F5">
-        <v>176014</v>
+        <v>176596</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -467,19 +467,19 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>196604</v>
+        <v>197122</v>
       </c>
       <c r="C6">
-        <v>191471</v>
+        <v>191985</v>
       </c>
       <c r="D6">
-        <v>185986</v>
+        <v>186698</v>
       </c>
       <c r="E6">
-        <v>180792</v>
+        <v>181402</v>
       </c>
       <c r="F6">
-        <v>175815</v>
+        <v>176501</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -487,19 +487,19 @@
         <v>2</v>
       </c>
       <c r="B7">
-        <v>195207</v>
+        <v>195567</v>
       </c>
       <c r="C7">
-        <v>190096</v>
+        <v>190716</v>
       </c>
       <c r="D7">
-        <v>184941</v>
+        <v>185794</v>
       </c>
       <c r="E7">
-        <v>179853</v>
+        <v>180716</v>
       </c>
       <c r="F7">
-        <v>174910</v>
+        <v>175615</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -507,19 +507,19 @@
         <v>3</v>
       </c>
       <c r="B8">
-        <v>195327</v>
+        <v>195532</v>
       </c>
       <c r="C8">
-        <v>190305</v>
+        <v>190756</v>
       </c>
       <c r="D8">
-        <v>185190</v>
+        <v>185837</v>
       </c>
       <c r="E8">
-        <v>180094</v>
+        <v>180742</v>
       </c>
       <c r="F8">
-        <v>175274</v>
+        <v>175729</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -549,19 +549,19 @@
         <v>1</v>
       </c>
       <c r="B12">
-        <v>96867</v>
+        <v>108053</v>
       </c>
       <c r="C12">
-        <v>10698</v>
+        <v>24037</v>
       </c>
       <c r="D12">
-        <v>931</v>
+        <v>940</v>
       </c>
       <c r="E12">
-        <v>900</v>
+        <v>923</v>
       </c>
       <c r="F12">
-        <v>846</v>
+        <v>922</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -569,19 +569,19 @@
         <v>8</v>
       </c>
       <c r="B13">
-        <v>96664</v>
+        <v>108653</v>
       </c>
       <c r="C13">
-        <v>10882</v>
+        <v>23884</v>
       </c>
       <c r="D13">
-        <v>923</v>
+        <v>933</v>
       </c>
       <c r="E13">
-        <v>894</v>
+        <v>922</v>
       </c>
       <c r="F13">
-        <v>844</v>
+        <v>921</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -589,19 +589,19 @@
         <v>2</v>
       </c>
       <c r="B14">
-        <v>97768</v>
+        <v>108802</v>
       </c>
       <c r="C14">
-        <v>13689</v>
+        <v>25144</v>
       </c>
       <c r="D14">
-        <v>3962</v>
+        <v>2766</v>
       </c>
       <c r="E14">
-        <v>3059</v>
+        <v>2888</v>
       </c>
       <c r="F14">
-        <v>3360</v>
+        <v>2746</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -609,19 +609,19 @@
         <v>3</v>
       </c>
       <c r="B15">
-        <v>97185</v>
+        <v>108514</v>
       </c>
       <c r="C15">
-        <v>12831</v>
+        <v>25542</v>
       </c>
       <c r="D15">
-        <v>3453</v>
+        <v>3282</v>
       </c>
       <c r="E15">
-        <v>3226</v>
+        <v>3283</v>
       </c>
       <c r="F15">
-        <v>2997</v>
+        <v>3057</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -651,19 +651,19 @@
         <v>1</v>
       </c>
       <c r="B19">
-        <v>47762</v>
+        <v>48134</v>
       </c>
       <c r="C19">
-        <v>36978</v>
+        <v>37207</v>
       </c>
       <c r="D19">
-        <v>33549</v>
+        <v>33778</v>
       </c>
       <c r="E19">
-        <v>31456</v>
+        <v>31787</v>
       </c>
       <c r="F19">
-        <v>29972</v>
+        <v>30242</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -671,19 +671,19 @@
         <v>8</v>
       </c>
       <c r="B20">
-        <v>30791</v>
+        <v>31012</v>
       </c>
       <c r="C20">
-        <v>30013</v>
+        <v>30199</v>
       </c>
       <c r="D20">
-        <v>29245</v>
+        <v>29451</v>
       </c>
       <c r="E20">
-        <v>28405</v>
+        <v>28704</v>
       </c>
       <c r="F20">
-        <v>27629</v>
+        <v>27893</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -691,19 +691,19 @@
         <v>2</v>
       </c>
       <c r="B21">
-        <v>30830</v>
+        <v>39062</v>
       </c>
       <c r="C21">
-        <v>30023</v>
+        <v>34081</v>
       </c>
       <c r="D21">
-        <v>29277</v>
+        <v>31572</v>
       </c>
       <c r="E21">
-        <v>28412</v>
+        <v>30425</v>
       </c>
       <c r="F21">
-        <v>27651</v>
+        <v>28929</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -711,19 +711,19 @@
         <v>3</v>
       </c>
       <c r="B22">
-        <v>45668</v>
+        <v>45962</v>
       </c>
       <c r="C22">
-        <v>35663</v>
+        <v>35615</v>
       </c>
       <c r="D22">
-        <v>32426</v>
+        <v>32561</v>
       </c>
       <c r="E22">
-        <v>30730</v>
+        <v>30836</v>
       </c>
       <c r="F22">
-        <v>29466</v>
+        <v>29705</v>
       </c>
     </row>
   </sheetData>
@@ -737,8 +737,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:F8"/>
+    <sheetView topLeftCell="A13" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -778,19 +778,19 @@
         <v>1</v>
       </c>
       <c r="B5">
-        <v>98843</v>
+        <v>49654</v>
       </c>
       <c r="C5">
-        <v>98531</v>
+        <v>49345</v>
       </c>
       <c r="D5">
-        <v>98183</v>
+        <v>49176</v>
       </c>
       <c r="E5">
-        <v>97845</v>
+        <v>48941</v>
       </c>
       <c r="F5">
-        <v>97501</v>
+        <v>48714</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -798,19 +798,19 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>130789</v>
+        <v>74732</v>
       </c>
       <c r="C6">
-        <v>135600</v>
+        <v>74555</v>
       </c>
       <c r="D6">
-        <v>140726</v>
+        <v>73960</v>
       </c>
       <c r="E6">
-        <v>145586</v>
+        <v>73745</v>
       </c>
       <c r="F6">
-        <v>150210</v>
+        <v>73779</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -818,19 +818,19 @@
         <v>2</v>
       </c>
       <c r="B7">
-        <v>102678</v>
+        <v>50926</v>
       </c>
       <c r="C7">
-        <v>106479</v>
+        <v>50941</v>
       </c>
       <c r="D7">
-        <v>110362</v>
+        <v>50928</v>
       </c>
       <c r="E7">
-        <v>114077</v>
+        <v>49878</v>
       </c>
       <c r="F7">
-        <v>117858</v>
+        <v>49027</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -838,19 +838,19 @@
         <v>3</v>
       </c>
       <c r="B8">
-        <v>97916</v>
+        <v>48889</v>
       </c>
       <c r="C8">
-        <v>96636</v>
+        <v>47345</v>
       </c>
       <c r="D8">
-        <v>95305</v>
+        <v>46359</v>
       </c>
       <c r="E8">
-        <v>94016</v>
+        <v>45322</v>
       </c>
       <c r="F8">
-        <v>92802</v>
+        <v>44119</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -880,19 +880,19 @@
         <v>1</v>
       </c>
       <c r="B12">
-        <v>90106</v>
+        <v>42300</v>
       </c>
       <c r="C12">
-        <v>58108</v>
+        <v>18373</v>
       </c>
       <c r="D12">
-        <v>50395</v>
+        <v>880</v>
       </c>
       <c r="E12">
-        <v>50344</v>
+        <v>843</v>
       </c>
       <c r="F12">
-        <v>50270</v>
+        <v>822</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -900,19 +900,19 @@
         <v>8</v>
       </c>
       <c r="B13">
-        <v>215706</v>
+        <v>61545</v>
       </c>
       <c r="C13">
-        <v>275394</v>
+        <v>41884</v>
       </c>
       <c r="D13">
-        <v>278035</v>
+        <v>25873</v>
       </c>
       <c r="E13">
-        <v>278015</v>
+        <v>25842</v>
       </c>
       <c r="F13">
-        <v>277995</v>
+        <v>25821</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -920,19 +920,19 @@
         <v>2</v>
       </c>
       <c r="B14">
-        <v>177769</v>
+        <v>39394</v>
       </c>
       <c r="C14">
-        <v>239982</v>
+        <v>11474</v>
       </c>
       <c r="D14">
-        <v>246680</v>
+        <v>924</v>
       </c>
       <c r="E14">
-        <v>247352</v>
+        <v>864</v>
       </c>
       <c r="F14">
-        <v>247113</v>
+        <v>831</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -940,19 +940,19 @@
         <v>3</v>
       </c>
       <c r="B15">
-        <v>74679</v>
+        <v>27879</v>
       </c>
       <c r="C15">
-        <v>53018</v>
+        <v>7018</v>
       </c>
       <c r="D15">
-        <v>50395</v>
+        <v>870</v>
       </c>
       <c r="E15">
-        <v>50345</v>
+        <v>830</v>
       </c>
       <c r="F15">
-        <v>50270</v>
+        <v>810</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -982,19 +982,19 @@
         <v>1</v>
       </c>
       <c r="B19">
-        <v>72457</v>
+        <v>23253</v>
       </c>
       <c r="C19">
-        <v>64086</v>
+        <v>14712</v>
       </c>
       <c r="D19">
-        <v>61397</v>
+        <v>11940</v>
       </c>
       <c r="E19">
-        <v>60100</v>
+        <v>10744</v>
       </c>
       <c r="F19">
-        <v>59335</v>
+        <v>10030</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -1002,19 +1002,19 @@
         <v>8</v>
       </c>
       <c r="B20">
-        <v>254991</v>
+        <v>32834</v>
       </c>
       <c r="C20">
-        <v>255706</v>
+        <v>32827</v>
       </c>
       <c r="D20">
-        <v>256422</v>
+        <v>32707</v>
       </c>
       <c r="E20">
-        <v>257217</v>
+        <v>32756</v>
       </c>
       <c r="F20">
-        <v>257935</v>
+        <v>32640</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -1022,19 +1022,19 @@
         <v>2</v>
       </c>
       <c r="B21">
-        <v>226301</v>
+        <v>17213</v>
       </c>
       <c r="C21">
-        <v>226895</v>
+        <v>13654</v>
       </c>
       <c r="D21">
-        <v>227408</v>
+        <v>11958</v>
       </c>
       <c r="E21">
-        <v>228063</v>
+        <v>11441</v>
       </c>
       <c r="F21">
-        <v>228628</v>
+        <v>10577</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -1042,19 +1042,19 @@
         <v>3</v>
       </c>
       <c r="B22">
-        <v>61328</v>
+        <v>12138</v>
       </c>
       <c r="C22">
-        <v>58659</v>
+        <v>9171</v>
       </c>
       <c r="D22">
-        <v>57737</v>
+        <v>8322</v>
       </c>
       <c r="E22">
-        <v>57228</v>
+        <v>7747</v>
       </c>
       <c r="F22">
-        <v>56845</v>
+        <v>7337</v>
       </c>
     </row>
   </sheetData>
@@ -1068,8 +1068,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:F22"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -1106,19 +1106,19 @@
         <v>1</v>
       </c>
       <c r="B5">
-        <v>49319</v>
+        <v>49654</v>
       </c>
       <c r="C5">
-        <v>49007</v>
+        <v>49345</v>
       </c>
       <c r="D5">
-        <v>48659</v>
+        <v>49176</v>
       </c>
       <c r="E5">
-        <v>48321</v>
+        <v>48941</v>
       </c>
       <c r="F5">
-        <v>47977</v>
+        <v>48714</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -1126,19 +1126,19 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>49298</v>
+        <v>49732</v>
       </c>
       <c r="C6">
-        <v>48976</v>
+        <v>49555</v>
       </c>
       <c r="D6">
-        <v>48617</v>
+        <v>48960</v>
       </c>
       <c r="E6">
-        <v>48283</v>
+        <v>48745</v>
       </c>
       <c r="F6">
-        <v>47930</v>
+        <v>48779</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -1146,19 +1146,19 @@
         <v>2</v>
       </c>
       <c r="B7">
-        <v>48361</v>
+        <v>49062</v>
       </c>
       <c r="C7">
-        <v>47051</v>
+        <v>47662</v>
       </c>
       <c r="D7">
-        <v>45779</v>
+        <v>46537</v>
       </c>
       <c r="E7">
-        <v>44406</v>
+        <v>44791</v>
       </c>
       <c r="F7">
-        <v>43244</v>
+        <v>43575</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -1166,19 +1166,19 @@
         <v>3</v>
       </c>
       <c r="B8">
-        <v>48392</v>
+        <v>48889</v>
       </c>
       <c r="C8">
-        <v>47112</v>
+        <v>47345</v>
       </c>
       <c r="D8">
-        <v>45781</v>
+        <v>46359</v>
       </c>
       <c r="E8">
-        <v>44492</v>
+        <v>45322</v>
       </c>
       <c r="F8">
-        <v>43278</v>
+        <v>44119</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -1208,19 +1208,19 @@
         <v>1</v>
       </c>
       <c r="B12">
-        <v>40582</v>
+        <v>42300</v>
       </c>
       <c r="C12">
-        <v>8584</v>
+        <v>18373</v>
       </c>
       <c r="D12">
-        <v>871</v>
+        <v>880</v>
       </c>
       <c r="E12">
-        <v>820</v>
+        <v>843</v>
       </c>
       <c r="F12">
-        <v>746</v>
+        <v>822</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -1228,19 +1228,19 @@
         <v>8</v>
       </c>
       <c r="B13">
-        <v>34275</v>
+        <v>36545</v>
       </c>
       <c r="C13">
-        <v>8181</v>
+        <v>16884</v>
       </c>
       <c r="D13">
-        <v>863</v>
+        <v>873</v>
       </c>
       <c r="E13">
-        <v>814</v>
+        <v>842</v>
       </c>
       <c r="F13">
-        <v>744</v>
+        <v>821</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -1248,19 +1248,19 @@
         <v>2</v>
       </c>
       <c r="B14">
-        <v>26013</v>
+        <v>29184</v>
       </c>
       <c r="C14">
-        <v>4147</v>
+        <v>8005</v>
       </c>
       <c r="D14">
-        <v>1118</v>
+        <v>885</v>
       </c>
       <c r="E14">
-        <v>887</v>
+        <v>848</v>
       </c>
       <c r="F14">
-        <v>949</v>
+        <v>818</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -1268,19 +1268,19 @@
         <v>3</v>
       </c>
       <c r="B15">
-        <v>25155</v>
+        <v>27879</v>
       </c>
       <c r="C15">
-        <v>3494</v>
+        <v>7018</v>
       </c>
       <c r="D15">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="E15">
-        <v>821</v>
+        <v>830</v>
       </c>
       <c r="F15">
-        <v>746</v>
+        <v>810</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -1310,19 +1310,19 @@
         <v>1</v>
       </c>
       <c r="B19">
-        <v>22933</v>
+        <v>23253</v>
       </c>
       <c r="C19">
-        <v>14562</v>
+        <v>14712</v>
       </c>
       <c r="D19">
-        <v>11873</v>
+        <v>11940</v>
       </c>
       <c r="E19">
-        <v>10576</v>
+        <v>10744</v>
       </c>
       <c r="F19">
-        <v>9811</v>
+        <v>10030</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -1330,19 +1330,19 @@
         <v>8</v>
       </c>
       <c r="B20">
-        <v>7687</v>
+        <v>7834</v>
       </c>
       <c r="C20">
-        <v>7624</v>
+        <v>7827</v>
       </c>
       <c r="D20">
-        <v>7572</v>
+        <v>7707</v>
       </c>
       <c r="E20">
-        <v>7527</v>
+        <v>7756</v>
       </c>
       <c r="F20">
-        <v>7469</v>
+        <v>7640</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -1350,19 +1350,19 @@
         <v>2</v>
       </c>
       <c r="B21">
-        <v>7607</v>
+        <v>10524</v>
       </c>
       <c r="C21">
-        <v>7394</v>
+        <v>8921</v>
       </c>
       <c r="D21">
-        <v>7161</v>
+        <v>8159</v>
       </c>
       <c r="E21">
-        <v>6951</v>
+        <v>8002</v>
       </c>
       <c r="F21">
-        <v>6755</v>
+        <v>7362</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -1370,19 +1370,19 @@
         <v>3</v>
       </c>
       <c r="B22">
-        <v>11804</v>
+        <v>12138</v>
       </c>
       <c r="C22">
-        <v>9135</v>
+        <v>9171</v>
       </c>
       <c r="D22">
-        <v>8213</v>
+        <v>8322</v>
       </c>
       <c r="E22">
-        <v>7704</v>
+        <v>7747</v>
       </c>
       <c r="F22">
-        <v>7321</v>
+        <v>7337</v>
       </c>
     </row>
   </sheetData>

--- a/result.xlsx
+++ b/result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NSYSU\課程\Advanced Operation System\HW1\PageReplacementAlgo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95B7EB9D-ABF6-4921-9F19-89048A7C7E87}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8D5CF1D-E90F-422C-8B80-EA67979F24BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9240" yWindow="1404" windowWidth="16440" windowHeight="9420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8412" yWindow="204" windowWidth="16440" windowHeight="12672" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -408,8 +408,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:F22"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -447,19 +447,19 @@
         <v>1</v>
       </c>
       <c r="B5">
-        <v>197148</v>
+        <v>197220</v>
       </c>
       <c r="C5">
-        <v>192071</v>
+        <v>191758</v>
       </c>
       <c r="D5">
-        <v>186734</v>
+        <v>186929</v>
       </c>
       <c r="E5">
-        <v>181289</v>
+        <v>182021</v>
       </c>
       <c r="F5">
-        <v>176596</v>
+        <v>177101</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -467,19 +467,19 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>197122</v>
+        <v>197229</v>
       </c>
       <c r="C6">
-        <v>191985</v>
+        <v>191884</v>
       </c>
       <c r="D6">
-        <v>186698</v>
+        <v>186891</v>
       </c>
       <c r="E6">
-        <v>181402</v>
+        <v>181938</v>
       </c>
       <c r="F6">
-        <v>176501</v>
+        <v>177092</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -487,19 +487,19 @@
         <v>2</v>
       </c>
       <c r="B7">
-        <v>195567</v>
+        <v>195699</v>
       </c>
       <c r="C7">
-        <v>190716</v>
+        <v>190924</v>
       </c>
       <c r="D7">
-        <v>185794</v>
+        <v>185882</v>
       </c>
       <c r="E7">
-        <v>180716</v>
+        <v>181130</v>
       </c>
       <c r="F7">
-        <v>175615</v>
+        <v>175924</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -507,19 +507,19 @@
         <v>3</v>
       </c>
       <c r="B8">
-        <v>195532</v>
+        <v>195752</v>
       </c>
       <c r="C8">
-        <v>190756</v>
+        <v>190803</v>
       </c>
       <c r="D8">
-        <v>185837</v>
+        <v>185824</v>
       </c>
       <c r="E8">
-        <v>180742</v>
+        <v>180981</v>
       </c>
       <c r="F8">
-        <v>175729</v>
+        <v>175997</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -549,19 +549,19 @@
         <v>1</v>
       </c>
       <c r="B12">
-        <v>108053</v>
+        <v>104045</v>
       </c>
       <c r="C12">
-        <v>24037</v>
+        <v>17876</v>
       </c>
       <c r="D12">
-        <v>940</v>
+        <v>1175</v>
       </c>
       <c r="E12">
-        <v>923</v>
+        <v>1175</v>
       </c>
       <c r="F12">
-        <v>922</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -569,19 +569,19 @@
         <v>8</v>
       </c>
       <c r="B13">
-        <v>108653</v>
+        <v>104448</v>
       </c>
       <c r="C13">
-        <v>23884</v>
+        <v>17986</v>
       </c>
       <c r="D13">
-        <v>933</v>
+        <v>1174</v>
       </c>
       <c r="E13">
-        <v>922</v>
+        <v>1164</v>
       </c>
       <c r="F13">
-        <v>921</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -589,19 +589,19 @@
         <v>2</v>
       </c>
       <c r="B14">
-        <v>108802</v>
+        <v>104587</v>
       </c>
       <c r="C14">
-        <v>25144</v>
+        <v>19581</v>
       </c>
       <c r="D14">
-        <v>2766</v>
+        <v>4024</v>
       </c>
       <c r="E14">
-        <v>2888</v>
+        <v>3872</v>
       </c>
       <c r="F14">
-        <v>2746</v>
+        <v>3541</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -609,19 +609,19 @@
         <v>3</v>
       </c>
       <c r="B15">
-        <v>108514</v>
+        <v>104749</v>
       </c>
       <c r="C15">
-        <v>25542</v>
+        <v>19932</v>
       </c>
       <c r="D15">
-        <v>3282</v>
+        <v>4326</v>
       </c>
       <c r="E15">
-        <v>3283</v>
+        <v>3874</v>
       </c>
       <c r="F15">
-        <v>3057</v>
+        <v>3591</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -651,19 +651,19 @@
         <v>1</v>
       </c>
       <c r="B19">
-        <v>48134</v>
+        <v>47904</v>
       </c>
       <c r="C19">
-        <v>37207</v>
+        <v>37056</v>
       </c>
       <c r="D19">
-        <v>33778</v>
+        <v>33602</v>
       </c>
       <c r="E19">
-        <v>31787</v>
+        <v>31514</v>
       </c>
       <c r="F19">
-        <v>30242</v>
+        <v>29999</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -671,19 +671,19 @@
         <v>8</v>
       </c>
       <c r="B20">
-        <v>31012</v>
+        <v>30882</v>
       </c>
       <c r="C20">
-        <v>30199</v>
+        <v>30066</v>
       </c>
       <c r="D20">
-        <v>29451</v>
+        <v>29302</v>
       </c>
       <c r="E20">
-        <v>28704</v>
+        <v>28460</v>
       </c>
       <c r="F20">
-        <v>27893</v>
+        <v>27656</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -691,19 +691,19 @@
         <v>2</v>
       </c>
       <c r="B21">
-        <v>39062</v>
+        <v>38523</v>
       </c>
       <c r="C21">
-        <v>34081</v>
+        <v>33696</v>
       </c>
       <c r="D21">
-        <v>31572</v>
+        <v>31648</v>
       </c>
       <c r="E21">
-        <v>30425</v>
+        <v>30100</v>
       </c>
       <c r="F21">
-        <v>28929</v>
+        <v>28810</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -711,19 +711,19 @@
         <v>3</v>
       </c>
       <c r="B22">
-        <v>45962</v>
+        <v>45743</v>
       </c>
       <c r="C22">
-        <v>35615</v>
+        <v>35479</v>
       </c>
       <c r="D22">
-        <v>32561</v>
+        <v>32685</v>
       </c>
       <c r="E22">
-        <v>30836</v>
+        <v>30803</v>
       </c>
       <c r="F22">
-        <v>29705</v>
+        <v>29506</v>
       </c>
     </row>
   </sheetData>
@@ -737,8 +737,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView topLeftCell="A7" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -778,19 +778,19 @@
         <v>1</v>
       </c>
       <c r="B5">
-        <v>49654</v>
+        <v>49656</v>
       </c>
       <c r="C5">
-        <v>49345</v>
+        <v>49369</v>
       </c>
       <c r="D5">
-        <v>49176</v>
+        <v>49190</v>
       </c>
       <c r="E5">
-        <v>48941</v>
+        <v>48943</v>
       </c>
       <c r="F5">
-        <v>48714</v>
+        <v>48473</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -798,19 +798,19 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>74732</v>
+        <v>74879</v>
       </c>
       <c r="C6">
-        <v>74555</v>
+        <v>74453</v>
       </c>
       <c r="D6">
-        <v>73960</v>
+        <v>73949</v>
       </c>
       <c r="E6">
-        <v>73745</v>
+        <v>74063</v>
       </c>
       <c r="F6">
-        <v>73779</v>
+        <v>73464</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -818,19 +818,19 @@
         <v>2</v>
       </c>
       <c r="B7">
-        <v>50926</v>
+        <v>52952</v>
       </c>
       <c r="C7">
-        <v>50941</v>
+        <v>56582</v>
       </c>
       <c r="D7">
-        <v>50928</v>
+        <v>58512</v>
       </c>
       <c r="E7">
-        <v>49878</v>
+        <v>61095</v>
       </c>
       <c r="F7">
-        <v>49027</v>
+        <v>62478</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -838,19 +838,19 @@
         <v>3</v>
       </c>
       <c r="B8">
-        <v>48889</v>
+        <v>48672</v>
       </c>
       <c r="C8">
-        <v>47345</v>
+        <v>47772</v>
       </c>
       <c r="D8">
-        <v>46359</v>
+        <v>46160</v>
       </c>
       <c r="E8">
-        <v>45322</v>
+        <v>45308</v>
       </c>
       <c r="F8">
-        <v>44119</v>
+        <v>43950</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -880,19 +880,19 @@
         <v>1</v>
       </c>
       <c r="B12">
-        <v>42300</v>
+        <v>41696</v>
       </c>
       <c r="C12">
-        <v>18373</v>
+        <v>13649</v>
       </c>
       <c r="D12">
-        <v>880</v>
+        <v>1115</v>
       </c>
       <c r="E12">
-        <v>843</v>
+        <v>1095</v>
       </c>
       <c r="F12">
-        <v>822</v>
+        <v>994</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -900,19 +900,19 @@
         <v>8</v>
       </c>
       <c r="B13">
-        <v>61545</v>
+        <v>60560</v>
       </c>
       <c r="C13">
-        <v>41884</v>
+        <v>37507</v>
       </c>
       <c r="D13">
-        <v>25873</v>
+        <v>26114</v>
       </c>
       <c r="E13">
-        <v>25842</v>
+        <v>26084</v>
       </c>
       <c r="F13">
-        <v>25821</v>
+        <v>25992</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -920,19 +920,19 @@
         <v>2</v>
       </c>
       <c r="B14">
-        <v>39394</v>
+        <v>71590</v>
       </c>
       <c r="C14">
-        <v>11474</v>
+        <v>33051</v>
       </c>
       <c r="D14">
-        <v>924</v>
+        <v>2419</v>
       </c>
       <c r="E14">
-        <v>864</v>
+        <v>2642</v>
       </c>
       <c r="F14">
-        <v>831</v>
+        <v>2136</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -940,19 +940,19 @@
         <v>3</v>
       </c>
       <c r="B15">
-        <v>27879</v>
+        <v>27027</v>
       </c>
       <c r="C15">
-        <v>7018</v>
+        <v>5521</v>
       </c>
       <c r="D15">
-        <v>870</v>
+        <v>1104</v>
       </c>
       <c r="E15">
-        <v>830</v>
+        <v>1085</v>
       </c>
       <c r="F15">
-        <v>810</v>
+        <v>982</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -982,19 +982,19 @@
         <v>1</v>
       </c>
       <c r="B19">
-        <v>23253</v>
+        <v>23338</v>
       </c>
       <c r="C19">
-        <v>14712</v>
+        <v>14824</v>
       </c>
       <c r="D19">
-        <v>11940</v>
+        <v>12132</v>
       </c>
       <c r="E19">
-        <v>10744</v>
+        <v>10669</v>
       </c>
       <c r="F19">
-        <v>10030</v>
+        <v>9929</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -1002,19 +1002,19 @@
         <v>8</v>
       </c>
       <c r="B20">
-        <v>32834</v>
+        <v>32638</v>
       </c>
       <c r="C20">
-        <v>32827</v>
+        <v>32634</v>
       </c>
       <c r="D20">
-        <v>32707</v>
+        <v>32718</v>
       </c>
       <c r="E20">
-        <v>32756</v>
+        <v>32677</v>
       </c>
       <c r="F20">
-        <v>32640</v>
+        <v>32581</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -1022,19 +1022,19 @@
         <v>2</v>
       </c>
       <c r="B21">
-        <v>17213</v>
+        <v>35295</v>
       </c>
       <c r="C21">
-        <v>13654</v>
+        <v>20048</v>
       </c>
       <c r="D21">
-        <v>11958</v>
+        <v>15488</v>
       </c>
       <c r="E21">
-        <v>11441</v>
+        <v>14528</v>
       </c>
       <c r="F21">
-        <v>10577</v>
+        <v>13288</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -1042,19 +1042,19 @@
         <v>3</v>
       </c>
       <c r="B22">
-        <v>12138</v>
+        <v>12202</v>
       </c>
       <c r="C22">
-        <v>9171</v>
+        <v>9136</v>
       </c>
       <c r="D22">
-        <v>8322</v>
+        <v>8403</v>
       </c>
       <c r="E22">
-        <v>7747</v>
+        <v>7838</v>
       </c>
       <c r="F22">
-        <v>7337</v>
+        <v>7409</v>
       </c>
     </row>
   </sheetData>
@@ -1068,8 +1068,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView topLeftCell="A4" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -1106,19 +1106,19 @@
         <v>1</v>
       </c>
       <c r="B5">
-        <v>49654</v>
+        <v>49656</v>
       </c>
       <c r="C5">
-        <v>49345</v>
+        <v>49369</v>
       </c>
       <c r="D5">
-        <v>49176</v>
+        <v>49190</v>
       </c>
       <c r="E5">
-        <v>48941</v>
+        <v>48943</v>
       </c>
       <c r="F5">
-        <v>48714</v>
+        <v>48473</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -1126,19 +1126,19 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>49732</v>
+        <v>49879</v>
       </c>
       <c r="C6">
-        <v>49555</v>
+        <v>49453</v>
       </c>
       <c r="D6">
-        <v>48960</v>
+        <v>48949</v>
       </c>
       <c r="E6">
-        <v>48745</v>
+        <v>49063</v>
       </c>
       <c r="F6">
-        <v>48779</v>
+        <v>48464</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -1146,19 +1146,19 @@
         <v>2</v>
       </c>
       <c r="B7">
-        <v>49062</v>
+        <v>48816</v>
       </c>
       <c r="C7">
-        <v>47662</v>
+        <v>48208</v>
       </c>
       <c r="D7">
-        <v>46537</v>
+        <v>46167</v>
       </c>
       <c r="E7">
-        <v>44791</v>
+        <v>45378</v>
       </c>
       <c r="F7">
-        <v>43575</v>
+        <v>43649</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -1166,19 +1166,19 @@
         <v>3</v>
       </c>
       <c r="B8">
-        <v>48889</v>
+        <v>48672</v>
       </c>
       <c r="C8">
-        <v>47345</v>
+        <v>47772</v>
       </c>
       <c r="D8">
-        <v>46359</v>
+        <v>46160</v>
       </c>
       <c r="E8">
-        <v>45322</v>
+        <v>45308</v>
       </c>
       <c r="F8">
-        <v>44119</v>
+        <v>43950</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -1208,19 +1208,19 @@
         <v>1</v>
       </c>
       <c r="B12">
-        <v>42300</v>
+        <v>41696</v>
       </c>
       <c r="C12">
-        <v>18373</v>
+        <v>13649</v>
       </c>
       <c r="D12">
-        <v>880</v>
+        <v>1115</v>
       </c>
       <c r="E12">
-        <v>843</v>
+        <v>1095</v>
       </c>
       <c r="F12">
-        <v>822</v>
+        <v>994</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -1228,19 +1228,19 @@
         <v>8</v>
       </c>
       <c r="B13">
-        <v>36545</v>
+        <v>35560</v>
       </c>
       <c r="C13">
-        <v>16884</v>
+        <v>12507</v>
       </c>
       <c r="D13">
-        <v>873</v>
+        <v>1114</v>
       </c>
       <c r="E13">
-        <v>842</v>
+        <v>1084</v>
       </c>
       <c r="F13">
-        <v>821</v>
+        <v>992</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -1248,19 +1248,19 @@
         <v>2</v>
       </c>
       <c r="B14">
-        <v>29184</v>
+        <v>28405</v>
       </c>
       <c r="C14">
-        <v>8005</v>
+        <v>6144</v>
       </c>
       <c r="D14">
-        <v>885</v>
+        <v>1128</v>
       </c>
       <c r="E14">
-        <v>848</v>
+        <v>1099</v>
       </c>
       <c r="F14">
-        <v>818</v>
+        <v>993</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -1268,19 +1268,19 @@
         <v>3</v>
       </c>
       <c r="B15">
-        <v>27879</v>
+        <v>27027</v>
       </c>
       <c r="C15">
-        <v>7018</v>
+        <v>5521</v>
       </c>
       <c r="D15">
-        <v>870</v>
+        <v>1104</v>
       </c>
       <c r="E15">
-        <v>830</v>
+        <v>1085</v>
       </c>
       <c r="F15">
-        <v>810</v>
+        <v>982</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -1310,19 +1310,19 @@
         <v>1</v>
       </c>
       <c r="B19">
-        <v>23253</v>
+        <v>23338</v>
       </c>
       <c r="C19">
-        <v>14712</v>
+        <v>14824</v>
       </c>
       <c r="D19">
-        <v>11940</v>
+        <v>12132</v>
       </c>
       <c r="E19">
-        <v>10744</v>
+        <v>10669</v>
       </c>
       <c r="F19">
-        <v>10030</v>
+        <v>9929</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -1330,19 +1330,19 @@
         <v>8</v>
       </c>
       <c r="B20">
-        <v>7834</v>
+        <v>7638</v>
       </c>
       <c r="C20">
-        <v>7827</v>
+        <v>7634</v>
       </c>
       <c r="D20">
-        <v>7707</v>
+        <v>7718</v>
       </c>
       <c r="E20">
-        <v>7756</v>
+        <v>7677</v>
       </c>
       <c r="F20">
-        <v>7640</v>
+        <v>7581</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -1350,19 +1350,19 @@
         <v>2</v>
       </c>
       <c r="B21">
-        <v>10524</v>
+        <v>10375</v>
       </c>
       <c r="C21">
-        <v>8921</v>
+        <v>8828</v>
       </c>
       <c r="D21">
-        <v>8159</v>
+        <v>8335</v>
       </c>
       <c r="E21">
-        <v>8002</v>
+        <v>7866</v>
       </c>
       <c r="F21">
-        <v>7362</v>
+        <v>7423</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -1370,23 +1370,24 @@
         <v>3</v>
       </c>
       <c r="B22">
-        <v>12138</v>
+        <v>12202</v>
       </c>
       <c r="C22">
-        <v>9171</v>
+        <v>9136</v>
       </c>
       <c r="D22">
-        <v>8322</v>
+        <v>8403</v>
       </c>
       <c r="E22">
-        <v>7747</v>
+        <v>7838</v>
       </c>
       <c r="F22">
-        <v>7337</v>
+        <v>7409</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/result.xlsx
+++ b/result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NSYSU\課程\Advanced Operation System\HW1\PageReplacementAlgo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8D5CF1D-E90F-422C-8B80-EA67979F24BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{316E59E4-8642-4A64-96EA-DCB91A0AB6AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8412" yWindow="204" windowWidth="16440" windowHeight="12672" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8616" yWindow="216" windowWidth="16440" windowHeight="12672" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -408,8 +408,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -549,19 +549,19 @@
         <v>1</v>
       </c>
       <c r="B12">
-        <v>104045</v>
+        <v>101691</v>
       </c>
       <c r="C12">
-        <v>17876</v>
+        <v>14562</v>
       </c>
       <c r="D12">
-        <v>1175</v>
+        <v>1065</v>
       </c>
       <c r="E12">
-        <v>1175</v>
+        <v>1049</v>
       </c>
       <c r="F12">
-        <v>1094</v>
+        <v>992</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -569,19 +569,19 @@
         <v>8</v>
       </c>
       <c r="B13">
-        <v>104448</v>
+        <v>101415</v>
       </c>
       <c r="C13">
-        <v>17986</v>
+        <v>14708</v>
       </c>
       <c r="D13">
-        <v>1174</v>
+        <v>1060</v>
       </c>
       <c r="E13">
-        <v>1164</v>
+        <v>1039</v>
       </c>
       <c r="F13">
-        <v>1092</v>
+        <v>990</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -589,19 +589,19 @@
         <v>2</v>
       </c>
       <c r="B14">
-        <v>104587</v>
+        <v>101601</v>
       </c>
       <c r="C14">
-        <v>19581</v>
+        <v>16545</v>
       </c>
       <c r="D14">
-        <v>4024</v>
+        <v>3372</v>
       </c>
       <c r="E14">
-        <v>3872</v>
+        <v>3252</v>
       </c>
       <c r="F14">
-        <v>3541</v>
+        <v>2930</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -609,19 +609,19 @@
         <v>3</v>
       </c>
       <c r="B15">
-        <v>104749</v>
+        <v>101499</v>
       </c>
       <c r="C15">
-        <v>19932</v>
+        <v>16780</v>
       </c>
       <c r="D15">
-        <v>4326</v>
+        <v>3770</v>
       </c>
       <c r="E15">
-        <v>3874</v>
+        <v>3661</v>
       </c>
       <c r="F15">
-        <v>3591</v>
+        <v>3399</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -651,19 +651,19 @@
         <v>1</v>
       </c>
       <c r="B19">
-        <v>47904</v>
+        <v>50381</v>
       </c>
       <c r="C19">
-        <v>37056</v>
+        <v>40463</v>
       </c>
       <c r="D19">
-        <v>33602</v>
+        <v>37023</v>
       </c>
       <c r="E19">
-        <v>31514</v>
+        <v>34955</v>
       </c>
       <c r="F19">
-        <v>29999</v>
+        <v>33404</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -671,19 +671,19 @@
         <v>8</v>
       </c>
       <c r="B20">
-        <v>30882</v>
+        <v>34706</v>
       </c>
       <c r="C20">
-        <v>30066</v>
+        <v>33787</v>
       </c>
       <c r="D20">
-        <v>29302</v>
+        <v>32869</v>
       </c>
       <c r="E20">
-        <v>28460</v>
+        <v>31992</v>
       </c>
       <c r="F20">
-        <v>27656</v>
+        <v>31125</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -691,19 +691,19 @@
         <v>2</v>
       </c>
       <c r="B21">
-        <v>38523</v>
+        <v>41899</v>
       </c>
       <c r="C21">
-        <v>33696</v>
+        <v>37501</v>
       </c>
       <c r="D21">
-        <v>31648</v>
+        <v>34997</v>
       </c>
       <c r="E21">
-        <v>30100</v>
+        <v>33601</v>
       </c>
       <c r="F21">
-        <v>28810</v>
+        <v>32278</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -711,19 +711,19 @@
         <v>3</v>
       </c>
       <c r="B22">
-        <v>45743</v>
+        <v>48103</v>
       </c>
       <c r="C22">
-        <v>35479</v>
+        <v>39163</v>
       </c>
       <c r="D22">
-        <v>32685</v>
+        <v>36063</v>
       </c>
       <c r="E22">
-        <v>30803</v>
+        <v>34432</v>
       </c>
       <c r="F22">
-        <v>29506</v>
+        <v>33098</v>
       </c>
     </row>
   </sheetData>
@@ -737,8 +737,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -880,19 +880,19 @@
         <v>1</v>
       </c>
       <c r="B12">
-        <v>41696</v>
+        <v>41604</v>
       </c>
       <c r="C12">
-        <v>13649</v>
+        <v>11009</v>
       </c>
       <c r="D12">
-        <v>1115</v>
+        <v>1005</v>
       </c>
       <c r="E12">
-        <v>1095</v>
+        <v>969</v>
       </c>
       <c r="F12">
-        <v>994</v>
+        <v>892</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -900,19 +900,19 @@
         <v>8</v>
       </c>
       <c r="B13">
-        <v>60560</v>
+        <v>59702</v>
       </c>
       <c r="C13">
-        <v>37507</v>
+        <v>35108</v>
       </c>
       <c r="D13">
-        <v>26114</v>
+        <v>26000</v>
       </c>
       <c r="E13">
-        <v>26084</v>
+        <v>25959</v>
       </c>
       <c r="F13">
-        <v>25992</v>
+        <v>25890</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -920,19 +920,19 @@
         <v>2</v>
       </c>
       <c r="B14">
-        <v>71590</v>
+        <v>71390</v>
       </c>
       <c r="C14">
-        <v>33051</v>
+        <v>27141</v>
       </c>
       <c r="D14">
-        <v>2419</v>
+        <v>2212</v>
       </c>
       <c r="E14">
-        <v>2642</v>
+        <v>2443</v>
       </c>
       <c r="F14">
-        <v>2136</v>
+        <v>1973</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -940,19 +940,19 @@
         <v>3</v>
       </c>
       <c r="B15">
-        <v>27027</v>
+        <v>26246</v>
       </c>
       <c r="C15">
-        <v>5521</v>
+        <v>4599</v>
       </c>
       <c r="D15">
-        <v>1104</v>
+        <v>1001</v>
       </c>
       <c r="E15">
-        <v>1085</v>
+        <v>966</v>
       </c>
       <c r="F15">
-        <v>982</v>
+        <v>888</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -982,19 +982,19 @@
         <v>1</v>
       </c>
       <c r="B19">
-        <v>23338</v>
+        <v>22992</v>
       </c>
       <c r="C19">
-        <v>14824</v>
+        <v>15330</v>
       </c>
       <c r="D19">
-        <v>12132</v>
+        <v>12867</v>
       </c>
       <c r="E19">
-        <v>10669</v>
+        <v>11489</v>
       </c>
       <c r="F19">
-        <v>9929</v>
+        <v>10919</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -1002,19 +1002,19 @@
         <v>8</v>
       </c>
       <c r="B20">
-        <v>32638</v>
+        <v>33765</v>
       </c>
       <c r="C20">
-        <v>32634</v>
+        <v>33804</v>
       </c>
       <c r="D20">
-        <v>32718</v>
+        <v>33670</v>
       </c>
       <c r="E20">
-        <v>32677</v>
+        <v>33527</v>
       </c>
       <c r="F20">
-        <v>32581</v>
+        <v>33562</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -1022,19 +1022,19 @@
         <v>2</v>
       </c>
       <c r="B21">
-        <v>35295</v>
+        <v>32655</v>
       </c>
       <c r="C21">
-        <v>20048</v>
+        <v>20135</v>
       </c>
       <c r="D21">
-        <v>15488</v>
+        <v>16557</v>
       </c>
       <c r="E21">
-        <v>14528</v>
+        <v>15283</v>
       </c>
       <c r="F21">
-        <v>13288</v>
+        <v>14261</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -1042,19 +1042,19 @@
         <v>3</v>
       </c>
       <c r="B22">
-        <v>12202</v>
+        <v>12623</v>
       </c>
       <c r="C22">
-        <v>9136</v>
+        <v>10043</v>
       </c>
       <c r="D22">
-        <v>8403</v>
+        <v>9183</v>
       </c>
       <c r="E22">
-        <v>7838</v>
+        <v>8705</v>
       </c>
       <c r="F22">
-        <v>7409</v>
+        <v>8317</v>
       </c>
     </row>
   </sheetData>
@@ -1068,8 +1068,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:F22"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -1208,19 +1208,19 @@
         <v>1</v>
       </c>
       <c r="B12">
-        <v>41696</v>
+        <v>41604</v>
       </c>
       <c r="C12">
-        <v>13649</v>
+        <v>11009</v>
       </c>
       <c r="D12">
-        <v>1115</v>
+        <v>1005</v>
       </c>
       <c r="E12">
-        <v>1095</v>
+        <v>969</v>
       </c>
       <c r="F12">
-        <v>994</v>
+        <v>892</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -1228,19 +1228,19 @@
         <v>8</v>
       </c>
       <c r="B13">
-        <v>35560</v>
+        <v>34702</v>
       </c>
       <c r="C13">
-        <v>12507</v>
+        <v>10108</v>
       </c>
       <c r="D13">
-        <v>1114</v>
+        <v>1000</v>
       </c>
       <c r="E13">
-        <v>1084</v>
+        <v>959</v>
       </c>
       <c r="F13">
-        <v>992</v>
+        <v>890</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -1248,19 +1248,19 @@
         <v>2</v>
       </c>
       <c r="B14">
-        <v>28405</v>
+        <v>27536</v>
       </c>
       <c r="C14">
-        <v>6144</v>
+        <v>5177</v>
       </c>
       <c r="D14">
-        <v>1128</v>
+        <v>1023</v>
       </c>
       <c r="E14">
-        <v>1099</v>
+        <v>981</v>
       </c>
       <c r="F14">
-        <v>993</v>
+        <v>893</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -1268,19 +1268,19 @@
         <v>3</v>
       </c>
       <c r="B15">
-        <v>27027</v>
+        <v>26246</v>
       </c>
       <c r="C15">
-        <v>5521</v>
+        <v>4599</v>
       </c>
       <c r="D15">
-        <v>1104</v>
+        <v>1001</v>
       </c>
       <c r="E15">
-        <v>1085</v>
+        <v>966</v>
       </c>
       <c r="F15">
-        <v>982</v>
+        <v>888</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -1310,19 +1310,19 @@
         <v>1</v>
       </c>
       <c r="B19">
-        <v>23338</v>
+        <v>22992</v>
       </c>
       <c r="C19">
-        <v>14824</v>
+        <v>15330</v>
       </c>
       <c r="D19">
-        <v>12132</v>
+        <v>12867</v>
       </c>
       <c r="E19">
-        <v>10669</v>
+        <v>11489</v>
       </c>
       <c r="F19">
-        <v>9929</v>
+        <v>10919</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -1330,19 +1330,19 @@
         <v>8</v>
       </c>
       <c r="B20">
-        <v>7638</v>
+        <v>8765</v>
       </c>
       <c r="C20">
-        <v>7634</v>
+        <v>8804</v>
       </c>
       <c r="D20">
-        <v>7718</v>
+        <v>8670</v>
       </c>
       <c r="E20">
-        <v>7677</v>
+        <v>8527</v>
       </c>
       <c r="F20">
-        <v>7581</v>
+        <v>8562</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -1350,19 +1350,19 @@
         <v>2</v>
       </c>
       <c r="B21">
-        <v>10375</v>
+        <v>11096</v>
       </c>
       <c r="C21">
-        <v>8828</v>
+        <v>9827</v>
       </c>
       <c r="D21">
-        <v>8335</v>
+        <v>9174</v>
       </c>
       <c r="E21">
-        <v>7866</v>
+        <v>8701</v>
       </c>
       <c r="F21">
-        <v>7423</v>
+        <v>8281</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -1370,19 +1370,19 @@
         <v>3</v>
       </c>
       <c r="B22">
-        <v>12202</v>
+        <v>12623</v>
       </c>
       <c r="C22">
-        <v>9136</v>
+        <v>10043</v>
       </c>
       <c r="D22">
-        <v>8403</v>
+        <v>9183</v>
       </c>
       <c r="E22">
-        <v>7838</v>
+        <v>8705</v>
       </c>
       <c r="F22">
-        <v>7409</v>
+        <v>8317</v>
       </c>
     </row>
   </sheetData>
